--- a/output/CodeSystem-CSEspecialidadesDeisCL.xlsx
+++ b/output/CodeSystem-CSEspecialidadesDeisCL.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.6</t>
+    <t>1.8.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/output/CodeSystem-CSEspecialidadesDeisCL.xlsx
+++ b/output/CodeSystem-CSEspecialidadesDeisCL.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/output/CodeSystem-CSEspecialidadesDeisCL.xlsx
+++ b/output/CodeSystem-CSEspecialidadesDeisCL.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>

--- a/output/CodeSystem-CSEspecialidadesDeisCL.xlsx
+++ b/output/CodeSystem-CSEspecialidadesDeisCL.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.11</t>
+    <t>1.8.12</t>
   </si>
   <si>
     <t>Name</t>

--- a/output/CodeSystem-CSEspecialidadesDeisCL.xlsx
+++ b/output/CodeSystem-CSEspecialidadesDeisCL.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.12</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/output/CodeSystem-CSEspecialidadesDeisCL.xlsx
+++ b/output/CodeSystem-CSEspecialidadesDeisCL.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="177">
   <si>
     <t>Property</t>
   </si>
@@ -144,55 +144,52 @@
     <t>1</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>Anatomía Patológica</t>
   </si>
   <si>
-    <t>02</t>
+    <t>2</t>
   </si>
   <si>
     <t>Anestesiología</t>
   </si>
   <si>
-    <t>03</t>
+    <t>3</t>
   </si>
   <si>
     <t>Cardiología</t>
   </si>
   <si>
-    <t>04</t>
+    <t>4</t>
   </si>
   <si>
     <t>Cirugía General</t>
   </si>
   <si>
-    <t>05</t>
+    <t>5</t>
   </si>
   <si>
     <t>Cirugía de Cabeza, Cuello y Maxilofacial</t>
   </si>
   <si>
-    <t>06</t>
+    <t>6</t>
   </si>
   <si>
     <t>Cirugía Cardiovascular</t>
   </si>
   <si>
-    <t>07</t>
+    <t>7</t>
   </si>
   <si>
     <t>Cirugía  de Tórax</t>
   </si>
   <si>
-    <t>08</t>
+    <t>8</t>
   </si>
   <si>
     <t>Cirugía Plástica y Reparadora</t>
   </si>
   <si>
-    <t>09</t>
+    <t>9</t>
   </si>
   <si>
     <t>Cirugía Pediátrica</t>
@@ -886,10 +883,10 @@
         <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -898,10 +895,10 @@
         <v>42</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -910,10 +907,10 @@
         <v>42</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -922,10 +919,10 @@
         <v>42</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -934,10 +931,10 @@
         <v>42</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -946,10 +943,10 @@
         <v>42</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>54</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -958,10 +955,10 @@
         <v>42</v>
       </c>
       <c r="B8" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>56</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -970,10 +967,10 @@
         <v>42</v>
       </c>
       <c r="B9" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -982,10 +979,10 @@
         <v>42</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -994,10 +991,10 @@
         <v>42</v>
       </c>
       <c r="B11" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -1006,10 +1003,10 @@
         <v>42</v>
       </c>
       <c r="B12" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -1018,10 +1015,10 @@
         <v>42</v>
       </c>
       <c r="B13" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -1030,10 +1027,10 @@
         <v>42</v>
       </c>
       <c r="B14" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -1042,10 +1039,10 @@
         <v>42</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -1054,10 +1051,10 @@
         <v>42</v>
       </c>
       <c r="B16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -1066,10 +1063,10 @@
         <v>42</v>
       </c>
       <c r="B17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -1078,10 +1075,10 @@
         <v>42</v>
       </c>
       <c r="B18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -1090,10 +1087,10 @@
         <v>42</v>
       </c>
       <c r="B19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -1102,10 +1099,10 @@
         <v>42</v>
       </c>
       <c r="B20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -1114,10 +1111,10 @@
         <v>42</v>
       </c>
       <c r="B21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -1126,10 +1123,10 @@
         <v>42</v>
       </c>
       <c r="B22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -1138,10 +1135,10 @@
         <v>42</v>
       </c>
       <c r="B23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -1150,10 +1147,10 @@
         <v>42</v>
       </c>
       <c r="B24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -1162,10 +1159,10 @@
         <v>42</v>
       </c>
       <c r="B25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -1174,10 +1171,10 @@
         <v>42</v>
       </c>
       <c r="B26" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -1186,10 +1183,10 @@
         <v>42</v>
       </c>
       <c r="B27" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -1198,10 +1195,10 @@
         <v>42</v>
       </c>
       <c r="B28" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="D28" s="2"/>
     </row>
@@ -1210,10 +1207,10 @@
         <v>42</v>
       </c>
       <c r="B29" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -1222,10 +1219,10 @@
         <v>42</v>
       </c>
       <c r="B30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -1234,10 +1231,10 @@
         <v>42</v>
       </c>
       <c r="B31" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -1246,10 +1243,10 @@
         <v>42</v>
       </c>
       <c r="B32" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -1258,10 +1255,10 @@
         <v>42</v>
       </c>
       <c r="B33" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -1270,10 +1267,10 @@
         <v>42</v>
       </c>
       <c r="B34" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -1282,10 +1279,10 @@
         <v>42</v>
       </c>
       <c r="B35" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -1294,10 +1291,10 @@
         <v>42</v>
       </c>
       <c r="B36" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="D36" s="2"/>
     </row>
@@ -1306,10 +1303,10 @@
         <v>42</v>
       </c>
       <c r="B37" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -1318,10 +1315,10 @@
         <v>42</v>
       </c>
       <c r="B38" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="D38" s="2"/>
     </row>
@@ -1330,10 +1327,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -1342,10 +1339,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -1354,10 +1351,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="D41" s="2"/>
     </row>
@@ -1366,10 +1363,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -1378,10 +1375,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -1390,10 +1387,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -1402,10 +1399,10 @@
         <v>42</v>
       </c>
       <c r="B45" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -1414,10 +1411,10 @@
         <v>42</v>
       </c>
       <c r="B46" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C46" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="D46" s="2"/>
     </row>
@@ -1426,10 +1423,10 @@
         <v>42</v>
       </c>
       <c r="B47" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -1438,10 +1435,10 @@
         <v>42</v>
       </c>
       <c r="B48" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="D48" s="2"/>
     </row>
@@ -1450,10 +1447,10 @@
         <v>42</v>
       </c>
       <c r="B49" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="D49" s="2"/>
     </row>
@@ -1462,10 +1459,10 @@
         <v>42</v>
       </c>
       <c r="B50" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -1474,10 +1471,10 @@
         <v>42</v>
       </c>
       <c r="B51" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="D51" s="2"/>
     </row>
@@ -1486,10 +1483,10 @@
         <v>42</v>
       </c>
       <c r="B52" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C52" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="D52" s="2"/>
     </row>
@@ -1498,10 +1495,10 @@
         <v>42</v>
       </c>
       <c r="B53" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C53" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="D53" s="2"/>
     </row>
@@ -1510,10 +1507,10 @@
         <v>42</v>
       </c>
       <c r="B54" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -1522,10 +1519,10 @@
         <v>42</v>
       </c>
       <c r="B55" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C55" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -1534,10 +1531,10 @@
         <v>42</v>
       </c>
       <c r="B56" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C56" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -1546,10 +1543,10 @@
         <v>42</v>
       </c>
       <c r="B57" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="D57" s="2"/>
     </row>
@@ -1558,10 +1555,10 @@
         <v>42</v>
       </c>
       <c r="B58" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -1570,10 +1567,10 @@
         <v>42</v>
       </c>
       <c r="B59" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -1582,10 +1579,10 @@
         <v>42</v>
       </c>
       <c r="B60" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -1594,10 +1591,10 @@
         <v>42</v>
       </c>
       <c r="B61" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -1606,10 +1603,10 @@
         <v>42</v>
       </c>
       <c r="B62" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C62" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -1618,10 +1615,10 @@
         <v>42</v>
       </c>
       <c r="B63" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -1630,10 +1627,10 @@
         <v>42</v>
       </c>
       <c r="B64" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C64" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="D64" s="2"/>
     </row>
@@ -1642,10 +1639,10 @@
         <v>42</v>
       </c>
       <c r="B65" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C65" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="D65" s="2"/>
     </row>
@@ -1654,10 +1651,10 @@
         <v>42</v>
       </c>
       <c r="B66" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="D66" s="2"/>
     </row>
@@ -1666,10 +1663,10 @@
         <v>42</v>
       </c>
       <c r="B67" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="C67" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="D67" s="2"/>
     </row>
@@ -1678,10 +1675,10 @@
         <v>42</v>
       </c>
       <c r="B68" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="D68" s="2"/>
     </row>
@@ -1693,7 +1690,7 @@
         <v>37</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D69" s="2"/>
     </row>
